--- a/2017_data/Teddy_Bridgewater2017.xlsx
+++ b/2017_data/Teddy_Bridgewater2017.xlsx
@@ -12,6 +12,65 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>Bridgewater</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>2017-12-17</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>25.037</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>W 34-7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-22.50</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,128 +412,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Bridgewater</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Teddy</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>QB</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2017-12-17</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>25.037</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>CIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>W 34-7</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr"/>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>-22.50</t>
-        </is>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s"/>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s"/>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>17</v>
       </c>
       <c r="AA1" t="n">
         <v>0</v>
